--- a/Datos/Anuario2024/120201_ContaminacionAcustica.xlsx
+++ b/Datos/Anuario2024/120201_ContaminacionAcustica.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2 graf1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="5" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="18" r:id="rId3"/>
+    <sheet name="2" sheetId="35" r:id="rId4"/>
+    <sheet name="2 graf1" sheetId="61" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -59,93 +65,164 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2 graf1'!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Av. Aragón</t>
+  </si>
+  <si>
+    <t>CONTAMINACIÓN ACÚSTICA</t>
+  </si>
+  <si>
+    <t>Olivereta</t>
+  </si>
+  <si>
+    <t>Patraix</t>
+  </si>
+  <si>
+    <t>1. Nivel sonoro según hora del día y estación automática. 2023</t>
+  </si>
+  <si>
+    <t>2. Nivel sonoro según mes y estación automática. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Datos en decibelios A (dBA). La estación Pista de Silla ya no mide la contaminación acústica.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Playas, Calidad Acústica y del Aire. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,120 +251,121 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -357,12 +435,140 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="306705"/>
+          <a:ext cx="5048250" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4991100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="342900" y="238125"/>
+          <a:ext cx="5019675" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2206,1158 +2412,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="39.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" style="5" min="2" max="16384"/>
+    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="41" t="inlineStr">
-        <is>
-          <t>CONTAMINACIÓN ACÚSTICA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="7.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="2" min="2" max="4"/>
-    <col width="12.7109375" customWidth="1" style="1" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="1" min="6" max="16384"/>
+    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>1. Nivel sonoro según hora del día y estación automática. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="1">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>Ayuntamiento</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>Av. Aragón</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>Olivereta</t>
-        </is>
-      </c>
-      <c r="E3" s="24" t="inlineStr">
-        <is>
-          <t>Patraix</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="18" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="n">
-        <v>58.20614525139663</v>
-      </c>
-      <c r="C4" s="19" t="n">
-        <v>59.77830985915494</v>
-      </c>
-      <c r="D4" s="19" t="n">
+      <c r="B4" s="19">
+        <v>58.206145251396634</v>
+      </c>
+      <c r="C4" s="19">
+        <v>59.778309859154938</v>
+      </c>
+      <c r="D4" s="19">
         <v>64.48</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="19">
         <v>64.88</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="20" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="n">
-        <v>55.10279329608939</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>57.1647887323944</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="B5" s="21">
+        <v>55.102793296089395</v>
+      </c>
+      <c r="C5" s="21">
+        <v>57.164788732394399</v>
+      </c>
+      <c r="D5" s="21">
         <v>62.77</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="21">
         <v>63.45</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="18" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="n">
-        <v>54.00840336134453</v>
-      </c>
-      <c r="C6" s="19" t="n">
-        <v>54.34067796610167</v>
-      </c>
-      <c r="D6" s="19" t="n">
+      <c r="B6" s="19">
+        <v>54.008403361344527</v>
+      </c>
+      <c r="C6" s="19">
+        <v>54.340677966101673</v>
+      </c>
+      <c r="D6" s="19">
         <v>61.71</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>62.07</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="20" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="n">
-        <v>51.73277310924367</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>53.34887640449438</v>
-      </c>
-      <c r="D7" s="21" t="n">
+      <c r="B7" s="21">
+        <v>51.732773109243674</v>
+      </c>
+      <c r="C7" s="21">
+        <v>53.348876404494384</v>
+      </c>
+      <c r="D7" s="21">
         <v>61.74</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="21">
         <v>62.15</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="18" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="n">
-        <v>50.23501400560224</v>
-      </c>
-      <c r="C8" s="19" t="n">
-        <v>53.66647727272729</v>
-      </c>
-      <c r="D8" s="19" t="n">
+      <c r="B8" s="19">
+        <v>50.235014005602238</v>
+      </c>
+      <c r="C8" s="19">
+        <v>53.666477272727292</v>
+      </c>
+      <c r="D8" s="19">
         <v>63.14</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>63.56</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="20" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>50.39187675070029</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>57.46704545454549</v>
-      </c>
-      <c r="D9" s="21" t="n">
+      <c r="B9" s="21">
+        <v>50.391876750700291</v>
+      </c>
+      <c r="C9" s="21">
+        <v>57.467045454545492</v>
+      </c>
+      <c r="D9" s="21">
         <v>64.83</v>
       </c>
-      <c r="E9" s="21" t="n">
-        <v>65.09999999999999</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="18" t="n">
+      <c r="E9" s="21">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="19">
         <v>52.72044817927172</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <v>62.0508522727273</v>
-      </c>
-      <c r="D10" s="19" t="n">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="E10" s="19" t="n">
-        <v>67.73999999999999</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="1">
-      <c r="A11" s="20" t="n">
+      <c r="C10" s="19">
+        <v>62.050852272727298</v>
+      </c>
+      <c r="D10" s="19">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="E10" s="19">
+        <v>67.739999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="n">
-        <v>56.49579831932772</v>
-      </c>
-      <c r="C11" s="21" t="n">
-        <v>65.2994318181818</v>
-      </c>
-      <c r="D11" s="21" t="n">
+      <c r="B11" s="21">
+        <v>56.495798319327719</v>
+      </c>
+      <c r="C11" s="21">
+        <v>65.299431818181802</v>
+      </c>
+      <c r="D11" s="21">
         <v>68.05</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="21">
         <v>68.97</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="1">
-      <c r="A12" s="18" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="n">
-        <v>59.62717086834732</v>
-      </c>
-      <c r="C12" s="19" t="n">
-        <v>66.01278409090914</v>
-      </c>
-      <c r="D12" s="19" t="n">
+      <c r="B12" s="19">
+        <v>59.627170868347321</v>
+      </c>
+      <c r="C12" s="19">
+        <v>66.012784090909136</v>
+      </c>
+      <c r="D12" s="19">
         <v>69.03</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="19">
         <v>69.64</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="1">
-      <c r="A13" s="20" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="n">
-        <v>60.08715083798891</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>66.26563380281694</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="E13" s="21" t="n">
+      <c r="B13" s="21">
+        <v>60.087150837988908</v>
+      </c>
+      <c r="C13" s="21">
+        <v>66.265633802816936</v>
+      </c>
+      <c r="D13" s="21">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="E13" s="21">
         <v>69.78</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="1">
-      <c r="A14" s="18" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="n">
-        <v>67.39720670391061</v>
-      </c>
-      <c r="C14" s="19" t="n">
-        <v>66.16090651558071</v>
-      </c>
-      <c r="D14" s="19" t="n">
+      <c r="B14" s="19">
+        <v>67.397206703910612</v>
+      </c>
+      <c r="C14" s="19">
+        <v>66.160906515580706</v>
+      </c>
+      <c r="D14" s="19">
         <v>69.39</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <v>69.81999999999999</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="20" t="n">
+      <c r="E14" s="19">
+        <v>69.819999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>67.8921787709497</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>66.40169491525423</v>
-      </c>
-      <c r="D15" s="21" t="n">
+      <c r="B15" s="21">
+        <v>67.892178770949698</v>
+      </c>
+      <c r="C15" s="21">
+        <v>66.401694915254225</v>
+      </c>
+      <c r="D15" s="21">
         <v>69.41</v>
       </c>
-      <c r="E15" s="21" t="n">
-        <v>69.76000000000001</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="18" t="n">
+      <c r="E15" s="21">
+        <v>69.760000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
-      <c r="B16" s="19" t="n">
-        <v>68.14916201117327</v>
-      </c>
-      <c r="C16" s="19" t="n">
-        <v>66.65000000000011</v>
-      </c>
-      <c r="D16" s="19" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="E16" s="19" t="n">
-        <v>70.01000000000001</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="1">
-      <c r="A17" s="20" t="n">
+      <c r="B16" s="19">
+        <v>68.149162011173274</v>
+      </c>
+      <c r="C16" s="19">
+        <v>66.650000000000105</v>
+      </c>
+      <c r="D16" s="19">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E16" s="19">
+        <v>70.010000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="21" t="n">
-        <v>68.39664804469271</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>67.05706214689266</v>
-      </c>
-      <c r="D17" s="21" t="n">
+      <c r="B17" s="21">
+        <v>68.396648044692711</v>
+      </c>
+      <c r="C17" s="21">
+        <v>67.057062146892662</v>
+      </c>
+      <c r="D17" s="21">
         <v>69.66</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="1">
-      <c r="A18" s="18" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="n">
-        <v>67.76211699164348</v>
-      </c>
-      <c r="C18" s="19" t="n">
-        <v>66.89633802816904</v>
-      </c>
-      <c r="D18" s="19" t="n">
+      <c r="B18" s="19">
+        <v>67.762116991643481</v>
+      </c>
+      <c r="C18" s="19">
+        <v>66.896338028169041</v>
+      </c>
+      <c r="D18" s="19">
         <v>69.41</v>
       </c>
-      <c r="E18" s="19" t="n">
-        <v>69.73999999999999</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="1">
-      <c r="A19" s="20" t="n">
+      <c r="E18" s="19">
+        <v>69.739999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="n">
-        <v>67.70640668523674</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>66.1122222222222</v>
-      </c>
-      <c r="D19" s="21" t="n">
+      <c r="B19" s="21">
+        <v>67.706406685236743</v>
+      </c>
+      <c r="C19" s="21">
+        <v>66.112222222222201</v>
+      </c>
+      <c r="D19" s="21">
         <v>69.33</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="21">
         <v>69.63</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="1">
-      <c r="A20" s="18" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>16</v>
       </c>
-      <c r="B20" s="19" t="n">
-        <v>67.82116991643451</v>
-      </c>
-      <c r="C20" s="19" t="n">
-        <v>66.22222222222223</v>
-      </c>
-      <c r="D20" s="19" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="E20" s="19" t="n">
-        <v>69.56999999999999</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="1">
-      <c r="A21" s="20" t="n">
+      <c r="B20" s="19">
+        <v>67.821169916434513</v>
+      </c>
+      <c r="C20" s="19">
+        <v>66.222222222222229</v>
+      </c>
+      <c r="D20" s="19">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="E20" s="19">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="n">
-        <v>68.07771587743731</v>
-      </c>
-      <c r="C21" s="21" t="n">
-        <v>66.8591666666667</v>
-      </c>
-      <c r="D21" s="21" t="n">
+      <c r="B21" s="21">
+        <v>68.077715877437313</v>
+      </c>
+      <c r="C21" s="21">
+        <v>66.859166666666695</v>
+      </c>
+      <c r="D21" s="21">
         <v>69.27</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="21">
         <v>69.66</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="1">
-      <c r="A22" s="18" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>18</v>
       </c>
-      <c r="B22" s="19" t="n">
+      <c r="B22" s="19">
         <v>68.40974930362114</v>
       </c>
-      <c r="C22" s="19" t="n">
-        <v>66.9205555555555</v>
-      </c>
-      <c r="D22" s="19" t="n">
+      <c r="C22" s="19">
+        <v>66.920555555555495</v>
+      </c>
+      <c r="D22" s="19">
         <v>69.42</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="19">
         <v>69.75</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="1">
-      <c r="A23" s="20" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="n">
-        <v>68.63899721448462</v>
-      </c>
-      <c r="C23" s="21" t="n">
-        <v>66.95361111111112</v>
-      </c>
-      <c r="D23" s="21" t="n">
+      <c r="B23" s="21">
+        <v>68.638997214484618</v>
+      </c>
+      <c r="C23" s="21">
+        <v>66.953611111111115</v>
+      </c>
+      <c r="D23" s="21">
         <v>69.3</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="21">
         <v>69.7</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="1">
-      <c r="A24" s="18" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
-      <c r="B24" s="19" t="n">
-        <v>68.48997214484683</v>
-      </c>
-      <c r="C24" s="19" t="n">
-        <v>66.92638888888882</v>
-      </c>
-      <c r="D24" s="19" t="n">
+      <c r="B24" s="19">
+        <v>68.489972144846831</v>
+      </c>
+      <c r="C24" s="19">
+        <v>66.926388888888823</v>
+      </c>
+      <c r="D24" s="19">
         <v>69.03</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="19">
         <v>69.42</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="1">
-      <c r="A25" s="20" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="21" t="n">
-        <v>67.23259052924796</v>
-      </c>
-      <c r="C25" s="21" t="n">
-        <v>65.96805555555555</v>
-      </c>
-      <c r="D25" s="21" t="n">
+      <c r="B25" s="21">
+        <v>67.232590529247958</v>
+      </c>
+      <c r="C25" s="21">
+        <v>65.968055555555551</v>
+      </c>
+      <c r="D25" s="21">
         <v>68.28</v>
       </c>
-      <c r="E25" s="21" t="n">
-        <v>68.84999999999999</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="1">
-      <c r="A26" s="18" t="n">
+      <c r="E25" s="21">
+        <v>68.849999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <v>22</v>
       </c>
-      <c r="B26" s="19" t="n">
-        <v>61.1030726256983</v>
-      </c>
-      <c r="C26" s="19" t="n">
-        <v>63.82676056338026</v>
-      </c>
-      <c r="D26" s="19" t="n">
+      <c r="B26" s="19">
+        <v>61.103072625698296</v>
+      </c>
+      <c r="C26" s="19">
+        <v>63.826760563380262</v>
+      </c>
+      <c r="D26" s="19">
         <v>67.17</v>
       </c>
-      <c r="E26" s="19" t="n">
-        <v>67.79000000000001</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="1">
-      <c r="A27" s="20" t="n">
+      <c r="E26" s="19">
+        <v>67.790000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="21" t="n">
-        <v>59.90782122905031</v>
-      </c>
-      <c r="C27" s="21" t="n">
+      <c r="B27" s="21">
+        <v>59.907821229050313</v>
+      </c>
+      <c r="C27" s="21">
         <v>61.79633802816906</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="21">
         <v>66.23</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="21">
         <v>66.62</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="1">
-      <c r="A28" s="15" t="inlineStr">
-        <is>
-          <t>Nota: Datos en decibelios A (dBA). La estación Pista de Silla ya no mide la contaminación acústica.</t>
-        </is>
-      </c>
-      <c r="B28" s="22" t="n"/>
-      <c r="C28" s="22" t="n"/>
-      <c r="D28" s="22" t="n"/>
-      <c r="E28" s="14" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Playas, Calidad Acústica y del Aire. Ayuntamiento de València.</t>
-        </is>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B5:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="37" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="37" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="37" min="3" max="3"/>
-    <col width="18.140625" customWidth="1" style="37" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="37" min="5" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="5" ht="14.25" customHeight="1" s="1">
-      <c r="C5" s="7" t="n"/>
-      <c r="E5" s="27" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="30" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-    </row>
-    <row r="7">
-      <c r="E7" s="30" t="n"/>
-      <c r="F7" s="33" t="n"/>
-      <c r="G7" s="33" t="n"/>
-      <c r="H7" s="33" t="n"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="30" t="n"/>
-      <c r="F8" s="33" t="n"/>
-      <c r="G8" s="33" t="n"/>
-      <c r="H8" s="33" t="n"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="30" t="n"/>
-      <c r="F9" s="33" t="n"/>
-      <c r="G9" s="33" t="n"/>
-      <c r="H9" s="33" t="n"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="30" t="n"/>
-      <c r="F10" s="33" t="n"/>
-      <c r="G10" s="33" t="n"/>
-      <c r="H10" s="33" t="n"/>
-    </row>
-    <row r="11">
-      <c r="E11" s="30" t="n"/>
-      <c r="F11" s="33" t="n"/>
-      <c r="G11" s="33" t="n"/>
-      <c r="H11" s="33" t="n"/>
-    </row>
-    <row r="12">
-      <c r="E12" s="30" t="n"/>
-      <c r="F12" s="33" t="n"/>
-      <c r="G12" s="33" t="n"/>
-      <c r="H12" s="33" t="n"/>
-    </row>
-    <row r="13">
-      <c r="E13" s="30" t="n"/>
-      <c r="F13" s="33" t="n"/>
-      <c r="G13" s="33" t="n"/>
-      <c r="H13" s="33" t="n"/>
-    </row>
-    <row r="14">
-      <c r="E14" s="30" t="n"/>
-      <c r="F14" s="33" t="n"/>
-      <c r="G14" s="33" t="n"/>
-      <c r="H14" s="33" t="n"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="30" t="n"/>
-      <c r="F15" s="33" t="n"/>
-      <c r="G15" s="33" t="n"/>
-      <c r="H15" s="33" t="n"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="30" t="n"/>
-      <c r="F16" s="33" t="n"/>
-      <c r="G16" s="33" t="n"/>
-      <c r="H16" s="33" t="n"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="30" t="n"/>
-      <c r="F17" s="33" t="n"/>
-      <c r="G17" s="33" t="n"/>
-      <c r="H17" s="33" t="n"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="30" t="n"/>
-      <c r="F18" s="33" t="n"/>
-      <c r="G18" s="33" t="n"/>
-      <c r="H18" s="33" t="n"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="30" t="n"/>
-      <c r="F19" s="33" t="n"/>
-      <c r="G19" s="32" t="n"/>
-      <c r="H19" s="33" t="n"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="30" t="n"/>
-      <c r="F20" s="33" t="n"/>
-      <c r="G20" s="32" t="n"/>
-      <c r="H20" s="33" t="n"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="30" t="n"/>
-      <c r="F21" s="33" t="n"/>
-      <c r="G21" s="32" t="n"/>
-      <c r="H21" s="33" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="23" t="n"/>
-      <c r="E22" s="30" t="n"/>
-      <c r="F22" s="33" t="n"/>
-      <c r="G22" s="32" t="n"/>
-      <c r="H22" s="33" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="30" t="n"/>
-      <c r="F23" s="33" t="n"/>
-      <c r="G23" s="32" t="n"/>
-      <c r="H23" s="33" t="n"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="30" t="n"/>
-      <c r="F24" s="33" t="n"/>
-      <c r="G24" s="32" t="n"/>
-      <c r="H24" s="33" t="n"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="30" t="n"/>
-      <c r="F25" s="33" t="n"/>
-      <c r="G25" s="32" t="n"/>
-      <c r="H25" s="33" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="30" t="n"/>
-      <c r="F26" s="33" t="n"/>
-      <c r="G26" s="32" t="n"/>
-      <c r="H26" s="33" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="30" t="n"/>
-      <c r="F27" s="33" t="n"/>
-      <c r="G27" s="33" t="n"/>
-      <c r="H27" s="33" t="n"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="30" t="n"/>
-      <c r="F28" s="33" t="n"/>
-      <c r="G28" s="33" t="n"/>
-      <c r="H28" s="33" t="n"/>
-      <c r="I28" s="33" t="n"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="30" t="n"/>
-      <c r="F29" s="33" t="n"/>
-      <c r="G29" s="33" t="n"/>
-      <c r="H29" s="33" t="n"/>
-      <c r="I29" s="33" t="n"/>
+    <row r="5" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="1" min="2" max="5"/>
-    <col width="6.28515625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="1" min="7" max="16384"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="41" t="inlineStr">
-        <is>
-          <t>2. Nivel sonoro según mes y estación automática. 2023</t>
-        </is>
-      </c>
-      <c r="E1" s="9" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="1">
-      <c r="A3" s="38" t="n"/>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>Ayuntamiento</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>Av. Aragón</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>Olivereta</t>
-        </is>
-      </c>
-      <c r="E3" s="24" t="inlineStr">
-        <is>
-          <t>Patraix</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19">
         <v>61.4</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="25">
         <v>63.6</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="25">
         <v>70.42307692307692</v>
       </c>
-      <c r="E4" s="25" t="n">
-        <v>69.83870967741936</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="21" t="n">
+      <c r="E4" s="25">
+        <v>69.838709677419359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21">
         <v>61.7</v>
       </c>
-      <c r="C5" s="26" t="n">
+      <c r="C5" s="26">
         <v>64</v>
       </c>
-      <c r="D5" s="26" t="n">
-        <v>69.53571428571429</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>70.07142857142857</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n">
+      <c r="D5" s="26">
+        <v>69.535714285714292</v>
+      </c>
+      <c r="E5" s="26">
+        <v>70.071428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
         <v>63.7</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="25">
         <v>63.9</v>
       </c>
-      <c r="D6" s="25" t="n">
-        <v>69.33333333333333</v>
-      </c>
-      <c r="E6" s="25" t="n">
-        <v>70.48387096774194</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="21" t="n">
+      <c r="D6" s="25">
+        <v>69.333333333333329</v>
+      </c>
+      <c r="E6" s="25">
+        <v>70.483870967741936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
         <v>61</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" s="26">
         <v>63</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="26">
         <v>68.28</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="26">
         <v>69.13333333333334</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
         <v>61.4</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="25">
         <v>63.4</v>
       </c>
-      <c r="D8" s="25" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E8" s="25" t="n">
-        <v>69.74193548387096</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="21" t="n">
+      <c r="D8" s="25">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E8" s="25">
+        <v>69.741935483870961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
         <v>61.6</v>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="26">
         <v>63.3</v>
       </c>
-      <c r="D9" s="26" t="n">
-        <v>69.07407407407408</v>
-      </c>
-      <c r="E9" s="21" t="n">
+      <c r="D9" s="26">
+        <v>69.074074074074076</v>
+      </c>
+      <c r="E9" s="21">
         <v>69.63333333333334</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="19" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
         <v>62.3</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="25">
         <v>63.3</v>
       </c>
-      <c r="D10" s="25" t="n">
-        <v>68.87096774193549</v>
-      </c>
-      <c r="E10" s="19" t="n">
+      <c r="D10" s="25">
+        <v>68.870967741935488</v>
+      </c>
+      <c r="E10" s="19">
         <v>69.41935483870968</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
         <v>61.9</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="21">
         <v>62.4</v>
       </c>
-      <c r="D11" s="21" t="n">
-        <v>68.72413793103448</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>68.54838709677419</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="1">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="19" t="n">
+      <c r="D11" s="21">
+        <v>68.724137931034477</v>
+      </c>
+      <c r="E11" s="21">
+        <v>68.548387096774192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
         <v>61.9</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="19">
         <v>63.4</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>70.7</v>
       </c>
-      <c r="E12" s="19" t="n">
-        <v>69.66666666666667</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="21" t="n">
+      <c r="E12" s="19">
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
         <v>61.8</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C13" s="21">
         <v>63.1</v>
       </c>
-      <c r="D13" s="21" t="n">
-        <v>69.44444444444444</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>69.11111111111111</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="19" t="n">
+      <c r="D13" s="21">
+        <v>69.444444444444443</v>
+      </c>
+      <c r="E13" s="21">
+        <v>69.111111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19">
         <v>61.2</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="19">
         <v>63.3</v>
       </c>
-      <c r="D14" s="19" t="n">
-        <v>70.04347826086956</v>
-      </c>
-      <c r="E14" s="19" t="n">
+      <c r="D14" s="19">
+        <v>70.043478260869563</v>
+      </c>
+      <c r="E14" s="19">
         <v>70.36363636363636</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="21" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21">
         <v>62.5</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="21">
         <v>63.3</v>
       </c>
-      <c r="D15" s="21" t="n">
-        <v>70.12903225806451</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>70.29032258064517</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="1">
-      <c r="A16" s="15" t="inlineStr">
-        <is>
-          <t>Nota: Datos en decibelios A (dBA). La estación Pista de Silla ya no mide la contaminación acústica.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Playas, Calidad Acústica y del Aire. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="6" t="n"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" s="1"/>
+      <c r="D15" s="21">
+        <v>70.129032258064512</v>
+      </c>
+      <c r="E15" s="21">
+        <v>70.290322580645167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I22"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="37" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="37" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="37" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="37" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="37" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="7"/>
-    <row r="2" customFormat="1" s="7">
-      <c r="F2" s="35" t="n"/>
-      <c r="G2" s="35" t="n"/>
-      <c r="H2" s="35" t="n"/>
-    </row>
-    <row r="3" customFormat="1" s="7">
-      <c r="F3" s="35" t="n"/>
-      <c r="G3" s="35" t="n"/>
-      <c r="H3" s="35" t="n"/>
-      <c r="I3" s="35" t="n"/>
-    </row>
-    <row r="4" customFormat="1" s="7">
-      <c r="F4" s="35" t="n"/>
-      <c r="G4" s="35" t="n"/>
-      <c r="H4" s="35" t="n"/>
-      <c r="I4" s="35" t="n"/>
-    </row>
-    <row r="5" customFormat="1" s="7">
-      <c r="F5" s="35" t="n"/>
-      <c r="G5" s="35" t="n"/>
-      <c r="H5" s="35" t="n"/>
-      <c r="I5" s="35" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="7">
-      <c r="F6" s="35" t="n"/>
-      <c r="G6" s="35" t="n"/>
-      <c r="H6" s="35" t="n"/>
-      <c r="I6" s="35" t="n"/>
-    </row>
-    <row r="7" customFormat="1" s="7">
-      <c r="F7" s="35" t="n"/>
-      <c r="G7" s="35" t="n"/>
-      <c r="H7" s="35" t="n"/>
-      <c r="I7" s="35" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="7">
-      <c r="F8" s="35" t="n"/>
-      <c r="G8" s="35" t="n"/>
-      <c r="H8" s="35" t="n"/>
-      <c r="I8" s="35" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="7">
-      <c r="F9" s="35" t="n"/>
-      <c r="G9" s="35" t="n"/>
-      <c r="H9" s="35" t="n"/>
-      <c r="I9" s="35" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="7">
-      <c r="F10" s="36" t="n"/>
-      <c r="G10" s="36" t="n"/>
-      <c r="H10" s="35" t="n"/>
-      <c r="I10" s="35" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="7">
-      <c r="F11" s="36" t="n"/>
-      <c r="G11" s="36" t="n"/>
-      <c r="H11" s="35" t="n"/>
-      <c r="I11" s="35" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="7">
-      <c r="F12" s="36" t="n"/>
-      <c r="G12" s="36" t="n"/>
-      <c r="H12" s="36" t="n"/>
-      <c r="I12" s="35" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="7">
-      <c r="F13" s="36" t="n"/>
-      <c r="G13" s="35" t="n"/>
-      <c r="H13" s="36" t="n"/>
-      <c r="I13" s="35" t="n"/>
-    </row>
-    <row r="14" customFormat="1" s="7"/>
-    <row r="15" customFormat="1" s="7"/>
-    <row r="16" customFormat="1" s="7"/>
-    <row r="22">
-      <c r="B22" s="23" t="n"/>
+    <row r="1" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="36"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="6:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>